--- a/data/evaluation/evaluation_South_Spring_Lettuce.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Lettuce.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2263.175446428571</v>
+        <v>2265.269196428571</v>
       </c>
       <c r="C3" t="n">
-        <v>10269124.39550064</v>
+        <v>10271831.61425064</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.547455648089</v>
+        <v>3204.969830474327</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4398082805289509</v>
+        <v>-0.4401878529076009</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2372.742327206992</v>
+        <v>2356.460480744287</v>
       </c>
       <c r="C4" t="n">
-        <v>10651591.73686822</v>
+        <v>10601212.24841578</v>
       </c>
       <c r="D4" t="n">
-        <v>3263.67763985174</v>
+        <v>3255.950283468066</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4934330711074171</v>
+        <v>-0.4863694888730425</v>
       </c>
     </row>
     <row r="5">
